--- a/mbs-perturbation/nano/svm/smote/nano-svm-poly-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8914027149321267</v>
+        <v>0.6763636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9248826291079812</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9078341013824885</v>
+        <v>0.7622950819672131</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9694396911061384</v>
+        <v>0.934469746829889</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7392857142857143</v>
+        <v>0.6678832116788321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9672897196261683</v>
+        <v>0.8551401869158879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8380566801619433</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9562985388969329</v>
+        <v>0.8918871484357861</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6804511278195489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9765258215962441</v>
+        <v>0.8497652582159625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7362831858407081</v>
+        <v>0.7557411273486431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8362317882254403</v>
+        <v>0.8649297978796094</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5475578406169666</v>
+        <v>0.5521126760563381</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.92018779342723</v>
       </c>
       <c r="D5" t="n">
-        <v>0.707641196013289</v>
+        <v>0.6901408450704226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8450704225352114</v>
+        <v>0.57981220657277</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5059952038369304</v>
+        <v>0.5335051546391752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6698412698412698</v>
+        <v>0.6888519134775375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8314377658753775</v>
+        <v>0.4766580704886597</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6550301129161658</v>
+        <v>0.6220631613115062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9718616997937783</v>
+        <v>0.8940327322188584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7719312866479398</v>
+        <v>0.7294057935727633</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8876956413278201</v>
+        <v>0.7495513940413429</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/smote/nano-svm-poly-results.xlsx
+++ b/mbs-perturbation/nano/svm/smote/nano-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6763636363636364</v>
+        <v>0.5792682926829268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8732394366197183</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.7279693486590038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.934469746829889</v>
+        <v>0.6717238813901584</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6678832116788321</v>
+        <v>0.726530612244898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8551401869158879</v>
+        <v>0.9222797927461139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.8127853881278538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8918871484357861</v>
+        <v>0.9207574381710378</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6804511278195489</v>
+        <v>0.610223642172524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8497652582159625</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7557411273486431</v>
+        <v>0.7549407114624507</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8649297978796094</v>
+        <v>0.9161236045083061</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5521126760563381</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.92018779342723</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6901408450704226</v>
+        <v>0.8530805687203792</v>
       </c>
       <c r="E5" t="n">
-        <v>0.57981220657277</v>
+        <v>0.9085786015704289</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5335051546391752</v>
+        <v>0.8061674008810573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.971830985915493</v>
+        <v>0.9432989690721649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6888519134775375</v>
+        <v>0.8693586698337292</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4766580704886597</v>
+        <v>0.9170717376208536</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6220631613115062</v>
+        <v>0.7023327264383866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8940327322188584</v>
+        <v>0.9524865124726244</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7294057935727633</v>
+        <v>0.8036269373606834</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7495513940413429</v>
+        <v>0.8668510526521569</v>
       </c>
     </row>
   </sheetData>
